--- a/excel2lua/src/goods.xlsx
+++ b/excel2lua/src/goods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="10691"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -102,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -117,14 +117,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +194,59 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,121 +259,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -269,31 +269,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,151 +431,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,26 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,11 +495,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,26 +517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,7 +530,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,145 +568,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>

--- a/excel2lua/src/goods.xlsx
+++ b/excel2lua/src/goods.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -22,24 +22,36 @@
     <t>描述</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
     <t>是否为背包物品</t>
   </si>
   <si>
+    <t>外链配置</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>_desc</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>goodsType</t>
   </si>
   <si>
     <t>isBag</t>
   </si>
   <si>
+    <t>extraCfg</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -95,6 +107,27 @@
   </si>
   <si>
     <t>紫宝石</t>
+  </si>
+  <si>
+    <t>短剑</t>
+  </si>
+  <si>
+    <t>_cfg.equip</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>戒指</t>
+  </si>
+  <si>
+    <t>项链</t>
   </si>
 </sst>
 </file>
@@ -117,62 +150,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,8 +164,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -193,9 +233,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,56 +285,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,43 +302,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,139 +470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,17 +496,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,9 +528,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,42 +574,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,145 +601,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,21 +1066,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="21.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
+    <col min="2" max="3" width="21.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="10.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,262 +1094,433 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="13.75" customHeight="1" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="13.75" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
         <v>100</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
         <v>100</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
         <v>100</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
         <v>100</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
         <v>100</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
         <v>100</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
         <v>101</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
         <v>101</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
         <v>101</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
         <v>101</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
         <v>101</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
         <v>101</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
         <v>101</v>
       </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>1001</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>1002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>1002</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>1003</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>1003</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1004</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>1004</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>1005</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>1005</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>1006</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>1006</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/excel2lua/src/goods.xlsx
+++ b/excel2lua/src/goods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="16080" windowHeight="12875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -124,10 +124,10 @@
     <t>裤子</t>
   </si>
   <si>
+    <t>鞋子</t>
+  </si>
+  <si>
     <t>戒指</t>
-  </si>
-  <si>
-    <t>项链</t>
   </si>
 </sst>
 </file>
@@ -135,8 +135,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -150,7 +150,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,66 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -241,52 +287,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -302,25 +302,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,157 +464,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,24 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -574,7 +565,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1434,6 +1434,9 @@
       <c r="D21">
         <v>1001</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
       <c r="F21" t="s">
         <v>32</v>
       </c>
@@ -1451,6 +1454,9 @@
       <c r="D22">
         <v>1002</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
       <c r="F22" t="s">
         <v>32</v>
       </c>
@@ -1468,6 +1474,9 @@
       <c r="D23">
         <v>1003</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
       <c r="F23" t="s">
         <v>32</v>
       </c>
@@ -1485,6 +1494,9 @@
       <c r="D24">
         <v>1004</v>
       </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
       <c r="F24" t="s">
         <v>32</v>
       </c>
@@ -1502,6 +1514,9 @@
       <c r="D25">
         <v>1005</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="F25" t="s">
         <v>32</v>
       </c>
@@ -1518,6 +1533,9 @@
       </c>
       <c r="D26">
         <v>1006</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>32</v>

--- a/excel2lua/src/goods.xlsx
+++ b/excel2lua/src/goods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="16080" windowHeight="12875"/>
+    <workbookView windowWidth="19044" windowHeight="12875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -22,6 +22,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>assetBundleName</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>_desc</t>
   </si>
   <si>
+    <t>assetBundle</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t>金币</t>
   </si>
   <si>
+    <t>goods</t>
+  </si>
+  <si>
     <t>钻石</t>
   </si>
   <si>
@@ -110,6 +119,9 @@
   </si>
   <si>
     <t>短剑</t>
+  </si>
+  <si>
+    <t>equip_icon</t>
   </si>
   <si>
     <t>_cfg.equip</t>
@@ -136,9 +148,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -157,7 +169,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,28 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,54 +277,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,32 +291,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,23 +511,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,16 +553,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,15 +572,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,6 +590,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,22 +1078,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
-    <col min="2" max="3" width="21.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="10.2222222222222" customWidth="1"/>
+    <col min="2" max="4" width="21.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="16.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="10.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,445 +1112,523 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="13.75" customHeight="1" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="13.75" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
         <v>100</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
         <v>100</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
         <v>100</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
         <v>100</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
         <v>100</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
         <v>100</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
         <v>100</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
         <v>101</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15">
         <v>101</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16">
         <v>101</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17">
         <v>101</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18">
         <v>101</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19">
         <v>101</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20">
         <v>101</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1001</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21">
         <v>1001</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>1002</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22">
         <v>1002</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>1003</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
         <v>1003</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>1004</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
         <v>1004</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>1005</v>
       </c>
       <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>1005</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25">
-        <v>1005</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>1006</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26">
         <v>1006</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/excel2lua/src/goods.xlsx
+++ b/excel2lua/src/goods.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +25,9 @@
     <t>assetBundleName</t>
   </si>
   <si>
+    <t>多语言Id</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>assetBundle</t>
+  </si>
+  <si>
+    <t>languageId</t>
   </si>
   <si>
     <t>name</t>
@@ -147,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -162,14 +168,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,15 +218,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,106 +310,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -314,6 +320,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -326,114 +446,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,55 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +511,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,56 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -590,21 +611,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -613,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,22 +1084,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
-    <col min="2" max="4" width="21.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="16.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="10.2222222222222" customWidth="1"/>
+    <col min="2" max="5" width="21.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="16.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="10.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1115,520 +1121,598 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="13.75" customHeight="1" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="13.75" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>10001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>10002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
+      <c r="D6">
+        <v>10003</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>10004</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>10005</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
         <v>100</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>10006</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
         <v>100</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>10007</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
         <v>100</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>10008</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
         <v>100</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>10009</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
         <v>100</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>10010</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
         <v>100</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>10011</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
         <v>101</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>10012</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
         <v>101</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>10013</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16">
         <v>101</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>10014</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
         <v>101</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>10015</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
         <v>101</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>10016</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
         <v>101</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>10017</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
         <v>101</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1001</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>10018</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21">
         <v>1001</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1002</v>
       </c>
       <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
+      <c r="D22">
+        <v>10019</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22">
         <v>1002</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>1003</v>
       </c>
       <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>10020</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>1003</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
         <v>38</v>
       </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23">
-        <v>1003</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1004</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24">
+        <v>37</v>
+      </c>
+      <c r="D24">
+        <v>10021</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24">
         <v>1004</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1005</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>10022</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25">
         <v>1005</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1006</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>10023</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26">
         <v>1006</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
